--- a/srkv2 — копия.xlsx
+++ b/srkv2 — копия.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="984" yWindow="156" windowWidth="20760" windowHeight="11184" firstSheet="11" activeTab="19"/>
+    <workbookView xWindow="984" yWindow="156" windowWidth="16728" windowHeight="6660" firstSheet="11" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="ориг" sheetId="1" r:id="rId1"/>
@@ -825,7 +825,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9F0E-494A-B9FD-DCE03728A1CF}"/>
+              <c16:uniqueId val="{00000000-0809-4437-B5BD-6913B5927888}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1152,7 +1152,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9F0E-494A-B9FD-DCE03728A1CF}"/>
+              <c16:uniqueId val="{00000001-0809-4437-B5BD-6913B5927888}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1479,7 +1479,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9F0E-494A-B9FD-DCE03728A1CF}"/>
+              <c16:uniqueId val="{00000002-0809-4437-B5BD-6913B5927888}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2015,7 +2015,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9431-4462-9124-62F24CF32B59}"/>
+              <c16:uniqueId val="{00000000-F067-4D38-AE58-18ABD7382B29}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2346,7 +2346,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9431-4462-9124-62F24CF32B59}"/>
+              <c16:uniqueId val="{00000001-F067-4D38-AE58-18ABD7382B29}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2661,7 +2661,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A2D5-4C26-8ACF-FAD4B962E389}"/>
+              <c16:uniqueId val="{00000000-0775-4C4D-99DC-3EA43E2B2848}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2772,7 +2772,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A2D5-4C26-8ACF-FAD4B962E389}"/>
+              <c16:uniqueId val="{00000001-0775-4C4D-99DC-3EA43E2B2848}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2883,7 +2883,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A2D5-4C26-8ACF-FAD4B962E389}"/>
+              <c16:uniqueId val="{00000002-0775-4C4D-99DC-3EA43E2B2848}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2994,7 +2994,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A2D5-4C26-8ACF-FAD4B962E389}"/>
+              <c16:uniqueId val="{00000003-0775-4C4D-99DC-3EA43E2B2848}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3105,7 +3105,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A2D5-4C26-8ACF-FAD4B962E389}"/>
+              <c16:uniqueId val="{00000004-0775-4C4D-99DC-3EA43E2B2848}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3421,7 +3421,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-242C-45C8-A77D-7C06DE99943A}"/>
+              <c16:uniqueId val="{00000000-DBE6-46E1-8D24-41D6FB7A5C82}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3532,7 +3532,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-242C-45C8-A77D-7C06DE99943A}"/>
+              <c16:uniqueId val="{00000001-DBE6-46E1-8D24-41D6FB7A5C82}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3643,7 +3643,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-242C-45C8-A77D-7C06DE99943A}"/>
+              <c16:uniqueId val="{00000002-DBE6-46E1-8D24-41D6FB7A5C82}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3754,7 +3754,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-242C-45C8-A77D-7C06DE99943A}"/>
+              <c16:uniqueId val="{00000003-DBE6-46E1-8D24-41D6FB7A5C82}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3865,7 +3865,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-242C-45C8-A77D-7C06DE99943A}"/>
+              <c16:uniqueId val="{00000004-DBE6-46E1-8D24-41D6FB7A5C82}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4181,7 +4181,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B821-4A58-8E84-A5E15C2FCE01}"/>
+              <c16:uniqueId val="{00000000-F992-4C2E-88D4-AAE7703350FB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4292,7 +4292,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B821-4A58-8E84-A5E15C2FCE01}"/>
+              <c16:uniqueId val="{00000001-F992-4C2E-88D4-AAE7703350FB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4403,7 +4403,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B821-4A58-8E84-A5E15C2FCE01}"/>
+              <c16:uniqueId val="{00000002-F992-4C2E-88D4-AAE7703350FB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4514,7 +4514,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B821-4A58-8E84-A5E15C2FCE01}"/>
+              <c16:uniqueId val="{00000003-F992-4C2E-88D4-AAE7703350FB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4625,7 +4625,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B821-4A58-8E84-A5E15C2FCE01}"/>
+              <c16:uniqueId val="{00000004-F992-4C2E-88D4-AAE7703350FB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4935,7 +4935,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C4D4-4DD6-ACC2-3C6EBB1B4E31}"/>
+              <c16:uniqueId val="{00000000-2BA9-4528-BE1F-A0A3DC149B05}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5040,7 +5040,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C4D4-4DD6-ACC2-3C6EBB1B4E31}"/>
+              <c16:uniqueId val="{00000001-2BA9-4528-BE1F-A0A3DC149B05}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5145,7 +5145,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C4D4-4DD6-ACC2-3C6EBB1B4E31}"/>
+              <c16:uniqueId val="{00000002-2BA9-4528-BE1F-A0A3DC149B05}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5250,7 +5250,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C4D4-4DD6-ACC2-3C6EBB1B4E31}"/>
+              <c16:uniqueId val="{00000003-2BA9-4528-BE1F-A0A3DC149B05}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5355,7 +5355,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C4D4-4DD6-ACC2-3C6EBB1B4E31}"/>
+              <c16:uniqueId val="{00000004-2BA9-4528-BE1F-A0A3DC149B05}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5671,7 +5671,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-56AF-4D8A-A238-2E321A243FD8}"/>
+              <c16:uniqueId val="{00000000-43F1-41F2-96B8-6BD3612FF53A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5782,7 +5782,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-56AF-4D8A-A238-2E321A243FD8}"/>
+              <c16:uniqueId val="{00000001-43F1-41F2-96B8-6BD3612FF53A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5893,7 +5893,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-56AF-4D8A-A238-2E321A243FD8}"/>
+              <c16:uniqueId val="{00000002-43F1-41F2-96B8-6BD3612FF53A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6004,7 +6004,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-56AF-4D8A-A238-2E321A243FD8}"/>
+              <c16:uniqueId val="{00000003-43F1-41F2-96B8-6BD3612FF53A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6115,7 +6115,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-56AF-4D8A-A238-2E321A243FD8}"/>
+              <c16:uniqueId val="{00000004-43F1-41F2-96B8-6BD3612FF53A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6401,7 +6401,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-039C-4EB3-AD08-3C3CD66D0588}"/>
+              <c16:uniqueId val="{00000000-3936-4BC4-A66F-4FC3E2FC3FCD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6482,7 +6482,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-039C-4EB3-AD08-3C3CD66D0588}"/>
+              <c16:uniqueId val="{00000001-3936-4BC4-A66F-4FC3E2FC3FCD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6563,7 +6563,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-039C-4EB3-AD08-3C3CD66D0588}"/>
+              <c16:uniqueId val="{00000002-3936-4BC4-A66F-4FC3E2FC3FCD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6644,7 +6644,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-039C-4EB3-AD08-3C3CD66D0588}"/>
+              <c16:uniqueId val="{00000003-3936-4BC4-A66F-4FC3E2FC3FCD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6725,7 +6725,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-039C-4EB3-AD08-3C3CD66D0588}"/>
+              <c16:uniqueId val="{00000004-3936-4BC4-A66F-4FC3E2FC3FCD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7039,7 +7039,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C5E2-443A-B16F-81058E0748A2}"/>
+              <c16:uniqueId val="{00000000-E9D2-4E53-B9A6-CF56D8AECBCF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7144,7 +7144,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C5E2-443A-B16F-81058E0748A2}"/>
+              <c16:uniqueId val="{00000001-E9D2-4E53-B9A6-CF56D8AECBCF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7249,7 +7249,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C5E2-443A-B16F-81058E0748A2}"/>
+              <c16:uniqueId val="{00000002-E9D2-4E53-B9A6-CF56D8AECBCF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7354,7 +7354,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C5E2-443A-B16F-81058E0748A2}"/>
+              <c16:uniqueId val="{00000003-E9D2-4E53-B9A6-CF56D8AECBCF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7459,7 +7459,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C5E2-443A-B16F-81058E0748A2}"/>
+              <c16:uniqueId val="{00000004-E9D2-4E53-B9A6-CF56D8AECBCF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7527,7 +7527,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-C5E2-443A-B16F-81058E0748A2}"/>
+              <c16:uniqueId val="{00000005-E9D2-4E53-B9A6-CF56D8AECBCF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7837,7 +7837,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FF9B-46BE-B447-A20DA179F04C}"/>
+              <c16:uniqueId val="{00000000-269E-468C-A479-AB2AA06BB9CC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7942,7 +7942,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FF9B-46BE-B447-A20DA179F04C}"/>
+              <c16:uniqueId val="{00000001-269E-468C-A479-AB2AA06BB9CC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8240,7 +8240,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-95EB-4C4D-9A70-4DE3CC262810}"/>
+              <c16:uniqueId val="{00000000-6AD1-4EA5-B688-33E450F28C84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8333,7 +8333,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-95EB-4C4D-9A70-4DE3CC262810}"/>
+              <c16:uniqueId val="{00000001-6AD1-4EA5-B688-33E450F28C84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8426,7 +8426,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-95EB-4C4D-9A70-4DE3CC262810}"/>
+              <c16:uniqueId val="{00000002-6AD1-4EA5-B688-33E450F28C84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8742,7 +8742,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E73C-4F7C-872F-F8A388D32B7E}"/>
+              <c16:uniqueId val="{00000000-C55D-445F-915A-90CBF8C5F7C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8853,7 +8853,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E73C-4F7C-872F-F8A388D32B7E}"/>
+              <c16:uniqueId val="{00000001-C55D-445F-915A-90CBF8C5F7C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8964,7 +8964,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E73C-4F7C-872F-F8A388D32B7E}"/>
+              <c16:uniqueId val="{00000002-C55D-445F-915A-90CBF8C5F7C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9075,7 +9075,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E73C-4F7C-872F-F8A388D32B7E}"/>
+              <c16:uniqueId val="{00000003-C55D-445F-915A-90CBF8C5F7C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9186,7 +9186,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E73C-4F7C-872F-F8A388D32B7E}"/>
+              <c16:uniqueId val="{00000004-C55D-445F-915A-90CBF8C5F7C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9297,7 +9297,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-E73C-4F7C-872F-F8A388D32B7E}"/>
+              <c16:uniqueId val="{00000005-C55D-445F-915A-90CBF8C5F7C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9613,7 +9613,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-009C-4AF9-8A32-C38F2D5E8A4C}"/>
+              <c16:uniqueId val="{00000000-0A16-43A7-A9B3-DB1ACCFC3EF0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9724,7 +9724,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-009C-4AF9-8A32-C38F2D5E8A4C}"/>
+              <c16:uniqueId val="{00000001-0A16-43A7-A9B3-DB1ACCFC3EF0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9835,7 +9835,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-009C-4AF9-8A32-C38F2D5E8A4C}"/>
+              <c16:uniqueId val="{00000002-0A16-43A7-A9B3-DB1ACCFC3EF0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9946,7 +9946,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-009C-4AF9-8A32-C38F2D5E8A4C}"/>
+              <c16:uniqueId val="{00000003-0A16-43A7-A9B3-DB1ACCFC3EF0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10057,7 +10057,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-009C-4AF9-8A32-C38F2D5E8A4C}"/>
+              <c16:uniqueId val="{00000004-0A16-43A7-A9B3-DB1ACCFC3EF0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10168,7 +10168,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-009C-4AF9-8A32-C38F2D5E8A4C}"/>
+              <c16:uniqueId val="{00000005-0A16-43A7-A9B3-DB1ACCFC3EF0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10484,7 +10484,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9D48-409B-B01D-7A45875ABDC5}"/>
+              <c16:uniqueId val="{00000000-7E80-4930-8AF5-F518B3BDBE99}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10595,7 +10595,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9D48-409B-B01D-7A45875ABDC5}"/>
+              <c16:uniqueId val="{00000001-7E80-4930-8AF5-F518B3BDBE99}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10706,7 +10706,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9D48-409B-B01D-7A45875ABDC5}"/>
+              <c16:uniqueId val="{00000002-7E80-4930-8AF5-F518B3BDBE99}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10817,7 +10817,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9D48-409B-B01D-7A45875ABDC5}"/>
+              <c16:uniqueId val="{00000003-7E80-4930-8AF5-F518B3BDBE99}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10928,7 +10928,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9D48-409B-B01D-7A45875ABDC5}"/>
+              <c16:uniqueId val="{00000004-7E80-4930-8AF5-F518B3BDBE99}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11039,7 +11039,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-9D48-409B-B01D-7A45875ABDC5}"/>
+              <c16:uniqueId val="{00000005-7E80-4930-8AF5-F518B3BDBE99}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11355,7 +11355,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DC88-430E-A10A-376D8BC81773}"/>
+              <c16:uniqueId val="{00000000-C38D-42B2-ABC6-50AD17B0F170}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11466,7 +11466,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DC88-430E-A10A-376D8BC81773}"/>
+              <c16:uniqueId val="{00000001-C38D-42B2-ABC6-50AD17B0F170}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11577,7 +11577,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DC88-430E-A10A-376D8BC81773}"/>
+              <c16:uniqueId val="{00000002-C38D-42B2-ABC6-50AD17B0F170}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11688,7 +11688,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-DC88-430E-A10A-376D8BC81773}"/>
+              <c16:uniqueId val="{00000003-C38D-42B2-ABC6-50AD17B0F170}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11799,7 +11799,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-DC88-430E-A10A-376D8BC81773}"/>
+              <c16:uniqueId val="{00000004-C38D-42B2-ABC6-50AD17B0F170}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12079,7 +12079,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-682F-4611-B332-22064B8064A2}"/>
+              <c16:uniqueId val="{00000000-76D7-4E51-96EC-4AE9D0011FEA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12154,7 +12154,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-682F-4611-B332-22064B8064A2}"/>
+              <c16:uniqueId val="{00000001-76D7-4E51-96EC-4AE9D0011FEA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12229,7 +12229,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-682F-4611-B332-22064B8064A2}"/>
+              <c16:uniqueId val="{00000002-76D7-4E51-96EC-4AE9D0011FEA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12304,7 +12304,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-682F-4611-B332-22064B8064A2}"/>
+              <c16:uniqueId val="{00000003-76D7-4E51-96EC-4AE9D0011FEA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12572,7 +12572,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8481-4EFB-A925-803D5E246B00}"/>
+              <c16:uniqueId val="{00000000-FBF8-4265-BB4E-7ECF5A47E1B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12635,7 +12635,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8481-4EFB-A925-803D5E246B00}"/>
+              <c16:uniqueId val="{00000001-FBF8-4265-BB4E-7ECF5A47E1B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12698,7 +12698,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8481-4EFB-A925-803D5E246B00}"/>
+              <c16:uniqueId val="{00000002-FBF8-4265-BB4E-7ECF5A47E1B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12761,7 +12761,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8481-4EFB-A925-803D5E246B00}"/>
+              <c16:uniqueId val="{00000003-FBF8-4265-BB4E-7ECF5A47E1B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13077,7 +13077,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-570C-4C36-848B-D0EE9FCBC68C}"/>
+              <c16:uniqueId val="{00000000-9100-4AEC-BD0C-0862A10AA234}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13188,7 +13188,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-570C-4C36-848B-D0EE9FCBC68C}"/>
+              <c16:uniqueId val="{00000001-9100-4AEC-BD0C-0862A10AA234}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13299,7 +13299,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-570C-4C36-848B-D0EE9FCBC68C}"/>
+              <c16:uniqueId val="{00000002-9100-4AEC-BD0C-0862A10AA234}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13410,7 +13410,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-570C-4C36-848B-D0EE9FCBC68C}"/>
+              <c16:uniqueId val="{00000003-9100-4AEC-BD0C-0862A10AA234}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13521,7 +13521,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-570C-4C36-848B-D0EE9FCBC68C}"/>
+              <c16:uniqueId val="{00000004-9100-4AEC-BD0C-0862A10AA234}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13837,7 +13837,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-486D-4B8B-9F3F-48382E6A11B1}"/>
+              <c16:uniqueId val="{00000000-9B17-4937-AA79-98B76A1969CC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13948,7 +13948,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-486D-4B8B-9F3F-48382E6A11B1}"/>
+              <c16:uniqueId val="{00000001-9B17-4937-AA79-98B76A1969CC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14059,7 +14059,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-486D-4B8B-9F3F-48382E6A11B1}"/>
+              <c16:uniqueId val="{00000002-9B17-4937-AA79-98B76A1969CC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14170,7 +14170,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-486D-4B8B-9F3F-48382E6A11B1}"/>
+              <c16:uniqueId val="{00000003-9B17-4937-AA79-98B76A1969CC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14281,7 +14281,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-486D-4B8B-9F3F-48382E6A11B1}"/>
+              <c16:uniqueId val="{00000004-9B17-4937-AA79-98B76A1969CC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -22538,8 +22538,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="8.88671875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="11" width="8.88671875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -22928,7 +22928,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:I3"/>
@@ -22936,36 +22936,116 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="8.88671875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="11" width="8.88671875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
+      <c r="B1">
+        <v>0.2</v>
+      </c>
+      <c r="C1">
+        <v>0.2</v>
+      </c>
+      <c r="D1">
+        <v>0.2</v>
+      </c>
+      <c r="E1">
+        <v>0.2</v>
+      </c>
+      <c r="F1">
+        <v>0.2</v>
+      </c>
+      <c r="G1">
+        <v>0.2</v>
+      </c>
+      <c r="H1">
+        <v>0.2</v>
+      </c>
+      <c r="I1">
+        <v>0.2</v>
+      </c>
+      <c r="J1">
+        <v>0.2</v>
+      </c>
+      <c r="K1">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
+      <c r="B2">
+        <v>0.94406366818298348</v>
+      </c>
+      <c r="C2">
+        <v>0.62974399082039101</v>
+      </c>
+      <c r="D2">
+        <v>0.73200718124146813</v>
+      </c>
+      <c r="E2">
+        <v>0.48510563286437769</v>
+      </c>
+      <c r="F2">
+        <v>5.3804740373902309</v>
+      </c>
+      <c r="G2">
+        <v>3.506493522165524</v>
+      </c>
+      <c r="H2">
+        <v>1.179264485133273</v>
+      </c>
+      <c r="I2">
+        <v>0.85041589615420032</v>
+      </c>
+      <c r="J2">
+        <v>3.3965261081786138</v>
+      </c>
+      <c r="K2">
+        <v>0.181506233551849</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
+      <c r="B3">
+        <v>2.728315811163062E-2</v>
+      </c>
+      <c r="C3">
+        <v>1.6190792133026419E-2</v>
+      </c>
+      <c r="D3">
+        <v>1.5223266290519561E-2</v>
+      </c>
+      <c r="E3">
+        <v>4.1602994230267518E-2</v>
+      </c>
+      <c r="F3">
+        <v>2.5195856664525E-2</v>
+      </c>
+      <c r="G3">
+        <v>1.592708901552272E-2</v>
+      </c>
+      <c r="H3">
+        <v>4.2341498808859727E-2</v>
+      </c>
+      <c r="I3">
+        <v>2.77893496828568E-2</v>
+      </c>
+      <c r="J3">
+        <v>1.148056221047143E-2</v>
+      </c>
+      <c r="K3">
+        <v>7.3479870681036244E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4"/>
-      <c r="C4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -22973,7 +23053,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
